--- a/REVER_DailyTracker_20201022.xlsx
+++ b/REVER_DailyTracker_20201022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8005C3-E777-49BC-81AD-3982C130BF9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DC3030-C9FF-4599-AB28-47AEB2B5680D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="101">
   <si>
     <t>Task</t>
   </si>
@@ -258,6 +258,93 @@
   </si>
   <si>
     <t>4. manual input date method implementation</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>Correction Job Details API to get Pickup Ack information</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In /instantfix/create and instantfix/update:
+Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
+Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
+Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
+</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Corrected Job details API and created new API for JobSheet.Also Created new API for technician reaching customer Place</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>Worked on to overcome the security certificate confirmation through Windows registry Key</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAYAAI-B2B </t>
+  </si>
+  <si>
+    <t>To display JobSheet details in B2C ,Repairs tab,
+First call userissues API,in which you will get eq_stock_id.
+Pass that eq_Stock_id to this new acknowldgesheet API</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>have modified the msg and have passed customer address in Push Notification.</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>added new company type Services, with role name as 'Srv_Admin',following functions have been added to this user.</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>This is the latest file text wrap and subject has been changed.Subject is changed to take from table instead of hard coding so now whatever the first record and the last ssc centre it would dispkay that</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>Rlogic -GL</t>
+  </si>
+  <si>
+    <t>Have run the files in Rlogic system to create GL.Had challenges in Excel macros</t>
+  </si>
+  <si>
+    <t>Rlogic -PL</t>
+  </si>
+  <si>
+    <t>Had executed PL for Rlogic</t>
   </si>
 </sst>
 </file>
@@ -851,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
@@ -2064,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2103,36 +2190,298 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43840</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>43961</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45">
+        <v>43992</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="46">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45">
+        <v>44022</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="46">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45">
+        <v>44053</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45">
+        <v>44084</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45">
+        <v>44175</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="46">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="46">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="46">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="47">
+        <v>15</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="46">
+        <v>1</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="17" spans="2:3" s="4" customFormat="1"/>
     <row r="18" spans="2:3" s="4" customFormat="1"/>
     <row r="19" spans="2:3" s="4" customFormat="1"/>
